--- a/target/classes/excel/img/richimg_tempo.xlsx
+++ b/target/classes/excel/img/richimg_tempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A039A1-5B31-4C5E-85A1-53FB6A355573}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE65E81-73C3-4A52-B0CB-F754497CF5AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>${col1}</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Path To Image Demo</t>
+  </si>
+  <si>
+    <t>Inserisce, nelle celle in cui trova il path di un'immagine, l'immagine effettiva.</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +465,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
